--- a/wxdgaming.game.test/src/cfg/道具.xlsx
+++ b/wxdgaming.game.test/src/cfg/道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="q_item" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="1">
+    <comment ref="K5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="39">
   <si>
     <t>任务集合</t>
   </si>
@@ -119,6 +119,9 @@
     <t>itemType</t>
   </si>
   <si>
+    <t>itemSubType</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -149,13 +152,10 @@
     <t>int</t>
   </si>
   <si>
-    <t>wxdgaming.chargame.server.bean.bag.ItemType</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
-    <t>wxdgaming.chargame.server.bean.AttrInfo</t>
+    <t>wxdgaming.game.test.bean.attr.AttrInfo</t>
   </si>
   <si>
     <t>主键id</t>
@@ -186,9 +186,6 @@
     <t>属性</t>
   </si>
   <si>
-    <t>CURRENCY</t>
-  </si>
-  <si>
     <t>钻石</t>
   </si>
   <si>
@@ -201,7 +198,7 @@
     <t>绑定金币</t>
   </si>
   <si>
-    <t>EQUIP</t>
+    <t>经验值</t>
   </si>
   <si>
     <t>武器</t>
@@ -862,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,9 +867,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1200,28 +1194,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="24.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="27.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="43.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="72.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="2" max="3" width="41.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="24.625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="27.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="48.375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1236,8 +1230,9 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
-    <row r="2" ht="14.25" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1271,9 +1266,12 @@
       <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="14.25" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1307,45 +1305,51 @@
       <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="3"/>
     </row>
-    <row r="4" ht="14.25" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
-    <row r="5" ht="42.75" spans="1:12">
+    <row r="5" ht="42.75" spans="1:13">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1353,19 +1357,19 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
@@ -1373,29 +1377,32 @@
       <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
     </row>
-    <row r="6" ht="14.25" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -1412,24 +1419,27 @@
       <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6"/>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
       <c r="L6"/>
+      <c r="M6"/>
     </row>
-    <row r="7" ht="14.25" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1446,24 +1456,27 @@
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7"/>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
       <c r="L7"/>
+      <c r="M7"/>
     </row>
-    <row r="8" ht="14.25" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>29</v>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -1480,286 +1493,350 @@
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8"/>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
       <c r="L8"/>
+      <c r="M8"/>
     </row>
-    <row r="9" ht="14.25" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9"/>
-      <c r="L9"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1">
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
         <v>10001</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1">
-        <v>10002</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>34</v>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1">
-        <v>10003</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>35</v>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1">
-        <v>10004</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>36</v>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1">
-        <v>10005</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1">
-        <v>10006</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1">
-        <v>6</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="F17" s="1">
+        <v>7</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1">
-        <v>10007</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
